--- a/folfox-protocole-exampl/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/folfox-protocole-exampl/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4339" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4339" uniqueCount="714">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T10:15:33+00:00</t>
+    <t>2024-12-30T08:25:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1834,23 +1834,7 @@
     <t>Quantity of the component prescribed in the prescription element</t>
   </si>
   <si>
-    <t>The comparator is not used on a SimpleQuantity</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
-  </si>
-  <si>
     <t>quantiteComposantPrescrit</t>
-  </si>
-  <si>
-    <t>n/a,PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate.rate[x]</t>
@@ -12580,7 +12564,7 @@
         <v>20</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>563</v>
@@ -12589,10 +12573,10 @@
         <v>575</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>567</v>
@@ -12656,10 +12640,10 @@
         <v>20</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>578</v>
+        <v>104</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>20</v>
@@ -12671,18 +12655,18 @@
         <v>20</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12705,19 +12689,19 @@
         <v>93</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>20</v>
@@ -12766,7 +12750,7 @@
         <v>20</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12793,18 +12777,18 @@
         <v>20</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12827,19 +12811,19 @@
         <v>93</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>20</v>
@@ -12888,7 +12872,7 @@
         <v>20</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12915,18 +12899,18 @@
         <v>20</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12952,16 +12936,16 @@
         <v>563</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>20</v>
@@ -13010,7 +12994,7 @@
         <v>20</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -13037,7 +13021,7 @@
         <v>20</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="AP87" t="s" s="2">
         <v>20</v>
@@ -13045,10 +13029,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13074,14 +13058,14 @@
         <v>563</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>20</v>
@@ -13130,7 +13114,7 @@
         <v>20</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -13157,7 +13141,7 @@
         <v>20</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="AP88" t="s" s="2">
         <v>20</v>
@@ -13165,10 +13149,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13191,13 +13175,13 @@
         <v>20</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -13248,7 +13232,7 @@
         <v>20</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13269,13 +13253,13 @@
         <v>20</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="AP89" t="s" s="2">
         <v>20</v>
@@ -13283,10 +13267,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13401,10 +13385,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13521,10 +13505,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13608,7 +13592,7 @@
         <v>20</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13643,10 +13627,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13669,16 +13653,16 @@
         <v>20</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13728,7 +13712,7 @@
         <v>20</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13755,7 +13739,7 @@
         <v>20</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="AP93" t="s" s="2">
         <v>20</v>
@@ -13763,10 +13747,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13881,10 +13865,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14001,10 +13985,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14088,7 +14072,7 @@
         <v>20</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -14123,10 +14107,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14152,10 +14136,10 @@
         <v>563</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -14206,7 +14190,7 @@
         <v>20</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14233,7 +14217,7 @@
         <v>20</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="AP97" t="s" s="2">
         <v>20</v>
@@ -14241,10 +14225,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14267,13 +14251,13 @@
         <v>20</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -14324,7 +14308,7 @@
         <v>20</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14351,7 +14335,7 @@
         <v>20</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="AP98" t="s" s="2">
         <v>20</v>
@@ -14359,10 +14343,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14385,13 +14369,13 @@
         <v>20</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>635</v>
       </c>
-      <c r="L99" t="s" s="2">
-        <v>640</v>
-      </c>
       <c r="M99" t="s" s="2">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14442,7 +14426,7 @@
         <v>20</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14469,7 +14453,7 @@
         <v>20</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="AP99" t="s" s="2">
         <v>20</v>
@@ -14477,10 +14461,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14506,16 +14490,16 @@
         <v>448</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>20</v>
@@ -14564,7 +14548,7 @@
         <v>20</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14585,13 +14569,13 @@
         <v>20</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="AP100" t="s" s="2">
         <v>20</v>
@@ -14599,10 +14583,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14625,16 +14609,16 @@
         <v>20</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14684,7 +14668,7 @@
         <v>20</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14705,24 +14689,24 @@
         <v>20</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="AP101" t="s" s="2">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14748,10 +14732,10 @@
         <v>563</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14802,7 +14786,7 @@
         <v>20</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14823,24 +14807,24 @@
         <v>20</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AP102" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14863,16 +14847,16 @@
         <v>20</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14922,7 +14906,7 @@
         <v>20</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14943,13 +14927,13 @@
         <v>20</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>20</v>
@@ -14957,10 +14941,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14983,13 +14967,13 @@
         <v>20</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -15040,7 +15024,7 @@
         <v>20</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15067,7 +15051,7 @@
         <v>361</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>20</v>
@@ -15075,10 +15059,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15104,10 +15088,10 @@
         <v>389</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -15158,7 +15142,7 @@
         <v>20</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15185,7 +15169,7 @@
         <v>20</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="AP105" t="s" s="2">
         <v>20</v>
@@ -15193,10 +15177,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15222,10 +15206,10 @@
         <v>209</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -15256,7 +15240,7 @@
       </c>
       <c r="Y106" s="2"/>
       <c r="Z106" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>20</v>
@@ -15274,7 +15258,7 @@
         <v>20</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15301,7 +15285,7 @@
         <v>20</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="AP106" t="s" s="2">
         <v>20</v>
@@ -15309,10 +15293,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15335,13 +15319,13 @@
         <v>20</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15392,7 +15376,7 @@
         <v>20</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15413,13 +15397,13 @@
         <v>20</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AP107" t="s" s="2">
         <v>20</v>
@@ -15427,10 +15411,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15545,10 +15529,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15665,10 +15649,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15752,7 +15736,7 @@
         <v>20</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15787,10 +15771,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15813,16 +15797,16 @@
         <v>20</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -15848,13 +15832,13 @@
         <v>20</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>20</v>
@@ -15870,7 +15854,7 @@
         <v>143</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>92</v>
@@ -15891,27 +15875,27 @@
         <v>20</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO111" t="s" s="2">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="AP111" t="s" s="2">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="D112" t="s" s="2">
         <v>20</v>
@@ -15936,13 +15920,13 @@
         <v>249</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -15992,7 +15976,7 @@
         <v>20</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>92</v>
@@ -16007,30 +15991,30 @@
         <v>104</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="AP112" t="s" s="2">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16056,10 +16040,10 @@
         <v>209</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -16089,10 +16073,10 @@
         <v>213</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>20</v>
@@ -16110,7 +16094,7 @@
         <v>20</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16137,18 +16121,18 @@
         <v>20</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>711</v>
+        <v>706</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16171,16 +16155,16 @@
         <v>20</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -16230,7 +16214,7 @@
         <v>20</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16248,7 +16232,7 @@
         <v>20</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>20</v>
@@ -16257,7 +16241,7 @@
         <v>20</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="AP114" t="s" s="2">
         <v>20</v>

--- a/folfox-protocole-exampl/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/folfox-protocole-exampl/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-30T08:25:45+00:00</t>
+    <t>2025-01-14T12:47:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/folfox-protocole-exampl/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/folfox-protocole-exampl/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T12:47:11+00:00</t>
+    <t>2025-01-16T12:57:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/folfox-protocole-exampl/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/folfox-protocole-exampl/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-16T12:57:14+00:00</t>
+    <t>2025-01-17T13:34:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
